--- a/data/Salamanca.xlsx
+++ b/data/Salamanca.xlsx
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,11 +6867,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6880,12 +6880,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,11 +6915,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6928,12 +6928,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">

--- a/data/Salamanca.xlsx
+++ b/data/Salamanca.xlsx
@@ -3668,7 +3668,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">

--- a/data/Salamanca.xlsx
+++ b/data/Salamanca.xlsx
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,11 +6867,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6880,12 +6880,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,11 +6915,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6928,12 +6928,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">

--- a/data/Salamanca.xlsx
+++ b/data/Salamanca.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,11 +6867,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6880,12 +6880,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,11 +6915,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6928,12 +6928,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">

--- a/data/Salamanca.xlsx
+++ b/data/Salamanca.xlsx
@@ -11083,7 +11083,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">

--- a/data/Salamanca.xlsx
+++ b/data/Salamanca.xlsx
@@ -6199,7 +6199,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F122" t="n">

--- a/data/Salamanca.xlsx
+++ b/data/Salamanca.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Salamanca.xlsx
+++ b/data/Salamanca.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,11 +6867,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6880,12 +6880,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,11 +6915,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6928,12 +6928,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">

--- a/data/Salamanca.xlsx
+++ b/data/Salamanca.xlsx
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Joaquin Solar SpA</t>
+          <t>SONNEDIX JOAQUÍN SOLAR SPA.</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Joaquin Solar SpA</t>
+          <t>SONNEDIX JOAQUÍN SOLAR SPA.</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,11 +6867,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6880,12 +6880,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,11 +6915,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6928,12 +6928,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">

--- a/data/Salamanca.xlsx
+++ b/data/Salamanca.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
